--- a/dist/document/dest/2020/10/doctors/173.xlsx
+++ b/dist/document/dest/2020/10/doctors/173.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>20</v>
       </c>
-      <c r="C2" s="1">
-        <v>75900</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>165</v>
       </c>
-      <c r="C3" s="1">
-        <v>1270500</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>120</v>
       </c>
-      <c r="C4" s="1">
-        <v>358800</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>70</v>
       </c>
-      <c r="C5" s="1">
-        <v>1288000</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>15</v>
       </c>
-      <c r="C6" s="1">
-        <v>56025</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>60</v>
       </c>
-      <c r="C7" s="1">
-        <v>841500</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>60</v>
       </c>
-      <c r="C8" s="1">
-        <v>514800</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>180</v>
       </c>
-      <c r="C9" s="1">
-        <v>1178100</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>315</v>
       </c>
-      <c r="C10" s="1">
-        <v>77175</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>28</v>
       </c>
-      <c r="C11" s="1">
-        <v>69720</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="C12" s="1">
-        <v>2424000</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>83</v>
       </c>
-      <c r="C13" s="1">
-        <v>1278200</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>360</v>
       </c>
-      <c r="C14" s="1">
-        <v>1863000</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>60</v>
       </c>
-      <c r="C15" s="1">
-        <v>241500</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>60</v>
       </c>
-      <c r="C16" s="1">
-        <v>158700</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>90</v>
       </c>
-      <c r="C17" s="1">
-        <v>1404000</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>1920</v>
       </c>
-      <c r="C18" s="1">
-        <v>27456000</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>90</v>
       </c>
-      <c r="C19" s="1">
-        <v>496800</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>210</v>
       </c>
-      <c r="C20" s="1">
-        <v>1014300</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>60</v>
       </c>
-      <c r="C21" s="1">
-        <v>270600</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>30</v>
       </c>
-      <c r="C22" s="1">
-        <v>38100</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>90</v>
       </c>
-      <c r="C23" s="1">
-        <v>165600</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>90</v>
       </c>
-      <c r="C24" s="1">
-        <v>414000</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>540</v>
       </c>
-      <c r="C25" s="1">
-        <v>2235600</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>60</v>
       </c>
-      <c r="C26" s="1">
-        <v>241500</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>270</v>
       </c>
-      <c r="C27" s="1">
-        <v>1930500</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>195</v>
       </c>
-      <c r="C28" s="1">
-        <v>773175</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>14</v>
       </c>
-      <c r="C29" s="1">
-        <v>121660</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>15</v>
       </c>
-      <c r="C30" s="1">
-        <v>163350</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>60</v>
       </c>
-      <c r="C31" s="1">
-        <v>455400</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>60</v>
       </c>
-      <c r="C32" s="1">
-        <v>1066200</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>60</v>
       </c>
-      <c r="C33" s="1">
-        <v>18300</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>14</v>
       </c>
-      <c r="C34" s="1">
-        <v>8540</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>195</v>
       </c>
-      <c r="C35" s="1">
-        <v>1031550</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>90</v>
       </c>
-      <c r="C36" s="1">
-        <v>871200</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -790,7 +685,7 @@
         <v>5753</v>
       </c>
       <c r="C37" s="1">
-        <v>51872295</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/173.xlsx
+++ b/dist/document/dest/2020/10/doctors/173.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,66 +399,90 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Aquima (Aluminum, magnesium, simethicone)</v>
+        <v>Aldactone (Spironolactone) 25mg</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C2" s="1">
+        <v>34050</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v>Aquima (Aluminum, magnesium, simethicone)</v>
       </c>
       <c r="B3" s="1">
-        <v>165</v>
+        <v>45</v>
+      </c>
+      <c r="C3" s="1">
+        <v>170775</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Azukon MR (Gliclazide B.P 30mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B4" s="1">
         <v>120</v>
       </c>
+      <c r="C4" s="1">
+        <v>924000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C5" s="1">
+        <v>276000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>420750</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Cadigrel (Clopidogrel 75mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>216150</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Dagocti (Dutasteride 0.5mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B8" s="1">
         <v>60</v>
       </c>
+      <c r="C8" s="1">
+        <v>392700</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Diosfort (Diosmin 600mg)</v>
+        <v>Diurefar (Furosemide 40mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>180</v>
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7350</v>
       </c>
     </row>
     <row r="10">
@@ -466,7 +490,10 @@
         <v>Diurefar (Furosemide 40mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>315</v>
+        <v>90</v>
+      </c>
+      <c r="C10" s="1">
+        <v>22050</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +501,10 @@
         <v>Domitazol (Malva purpurea, xanh methylen, camphor monobromid)</v>
       </c>
       <c r="B11" s="1">
-        <v>28</v>
+        <v>90</v>
+      </c>
+      <c r="C11" s="1">
+        <v>224100</v>
       </c>
     </row>
     <row r="12">
@@ -484,45 +514,63 @@
       <c r="B12" s="1">
         <v>4</v>
       </c>
+      <c r="C12" s="1">
+        <v>2424000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Febuxotid VK (Febuxostat 40mg)</v>
+        <v>Febuday (Febuxostat 40mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>83</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>239250</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Fiora (Iron hydroxyde, folic acid, pyridoxin)</v>
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>360</v>
+        <v>38</v>
+      </c>
+      <c r="C14" s="1">
+        <v>585200</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Gujujnam (Piracetam 800mg)</v>
+        <v>Fiora (Iron hydroxyde, folic acid, pyridoxin)</v>
       </c>
       <c r="B15" s="1">
-        <v>60</v>
+        <v>180</v>
+      </c>
+      <c r="C15" s="1">
+        <v>931500</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Kaleorid (Potassium 600mg)</v>
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
       </c>
       <c r="B16" s="1">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>246400</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Ketosteril</v>
+        <v>Kaleorid (Potassium 600mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="C17" s="1">
+        <v>79350</v>
       </c>
     </row>
     <row r="18">
@@ -530,167 +578,191 @@
         <v>Ketovital</v>
       </c>
       <c r="B18" s="1">
-        <v>1920</v>
+        <v>60</v>
+      </c>
+      <c r="C18" s="1">
+        <v>858000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Ketovital</v>
       </c>
       <c r="B19" s="1">
-        <v>90</v>
+        <v>735</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10510500</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+        <v>Lorista (Losartan 50mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>210</v>
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>165600</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Medrol 16mg (Methylprednisolone)</v>
+        <v>Lorista (Losartan 50mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>60</v>
+        <v>120</v>
+      </c>
+      <c r="C21" s="1">
+        <v>662400</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Medrol 4mg (Methylprednisolone)</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B22" s="1">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="C22" s="1">
+        <v>970200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Metozamin (Metformin 850mg)</v>
+        <v>Mecefix-B.E (Cefixim 250mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>346500</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
       </c>
       <c r="B24" s="1">
         <v>90</v>
       </c>
+      <c r="C24" s="1">
+        <v>434700</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Pharcotinex</v>
+        <v>Metilone-16 (Methylprednisolone 16mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>540</v>
+        <v>45</v>
+      </c>
+      <c r="C25" s="1">
+        <v>165150</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v>Normodipine (Amlodipine 5mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C26" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Rabaris (Rabeprazole 20mg)</v>
+        <v>Normodipine (Amlodipine 5mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>270</v>
+        <v>45</v>
+      </c>
+      <c r="C27" s="1">
+        <v>207000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Safena (Atorvastatin 10mg)</v>
+        <v>Philiver (Carduus, vitamin..)</v>
       </c>
       <c r="B28" s="1">
-        <v>195</v>
+        <v>60</v>
+      </c>
+      <c r="C28" s="1">
+        <v>241500</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Sanaperol (Rabeprazol 20mg)</v>
+        <v>Rabaris (Rabeprazole 20mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>14</v>
+        <v>195</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1394250</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Surotadina (Rosuvastatin 10mg)</v>
+        <v>Sanaperol (Rabeprazol 20mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
+        <v>260700</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Telod (Telmisartan 40mg)</v>
+        <v>Vitamin Pp 500mg(Nicotinamide)</v>
       </c>
       <c r="B31" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>18300</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Trajenta 5mg (Linagliptin)</v>
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
       </c>
       <c r="B32" s="1">
-        <v>60</v>
+        <v>105</v>
+      </c>
+      <c r="C32" s="1">
+        <v>555450</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Vitamin C 500</v>
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
       </c>
       <c r="B33" s="1">
-        <v>60</v>
+        <v>75</v>
+      </c>
+      <c r="C33" s="1">
+        <v>726000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Vitamin Pp 500mg(Nicotinamide)</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B34" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>Zedcal-OP (Calcium, zinc, D3)</v>
-      </c>
-      <c r="B35" s="1">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
-      </c>
-      <c r="B36" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B37" s="1">
-        <v>5753</v>
-      </c>
-      <c r="C37" s="1">
-        <v>NaN</v>
+        <v>2591</v>
+      </c>
+      <c r="C34" s="1">
+        <v>24847875</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C37"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C34"/>
   </ignoredErrors>
 </worksheet>
 </file>